--- a/teaching/traditional_assets/database/data/tunisia/tunisia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_investments_asset_management.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0737</v>
+        <v>0.0155</v>
       </c>
       <c r="E2">
-        <v>0.07719999999999999</v>
+        <v>0.005180000000000001</v>
       </c>
       <c r="G2">
-        <v>0.9788235294117648</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="H2">
-        <v>0.9788235294117648</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="I2">
-        <v>0.9717647058823529</v>
+        <v>0.9672830725462304</v>
       </c>
       <c r="J2">
-        <v>0.9521330956625074</v>
+        <v>0.9035726009410219</v>
       </c>
       <c r="K2">
-        <v>7.76</v>
+        <v>5.83</v>
       </c>
       <c r="L2">
-        <v>0.9129411764705883</v>
+        <v>0.829302987197724</v>
       </c>
       <c r="M2">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="N2">
-        <v>0.06952380952380952</v>
+        <v>0.07402269861286255</v>
       </c>
       <c r="O2">
-        <v>0.7525773195876289</v>
+        <v>1.006861063464837</v>
       </c>
       <c r="P2">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="Q2">
-        <v>0.06952380952380952</v>
+        <v>0.07402269861286255</v>
       </c>
       <c r="R2">
-        <v>0.7525773195876289</v>
+        <v>1.006861063464837</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.183</v>
+        <v>0.35</v>
       </c>
       <c r="V2">
-        <v>0.002178571428571429</v>
+        <v>0.004413619167717528</v>
       </c>
       <c r="W2">
-        <v>0.3154471544715447</v>
+        <v>0.239917695473251</v>
       </c>
       <c r="X2">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y2">
-        <v>0.2378732841151549</v>
+        <v>0.1753750092831101</v>
       </c>
       <c r="Z2">
-        <v>0.3459925916880368</v>
+        <v>0.2914956254923913</v>
       </c>
       <c r="AA2">
-        <v>0.3294309974002244</v>
+        <v>0.26338746048909</v>
       </c>
       <c r="AB2">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC2">
-        <v>0.2518571270438346</v>
+        <v>0.198844774298949</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.183</v>
+        <v>-0.35</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.002183327964494077</v>
+        <v>-0.004433185560481317</v>
       </c>
       <c r="AK2">
-        <v>-0.007588008458763527</v>
+        <v>-0.01455301455301455</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.02210144927536232</v>
+        <v>-0.05131964809384164</v>
       </c>
       <c r="AQ2">
-        <v>-1376.666666666667</v>
+        <v>-1360</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0737</v>
+        <v>0.0155</v>
       </c>
       <c r="E3">
-        <v>0.07719999999999999</v>
+        <v>0.005180000000000001</v>
       </c>
       <c r="G3">
-        <v>0.9788235294117648</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="H3">
-        <v>0.9788235294117648</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="I3">
-        <v>0.9717647058823529</v>
+        <v>0.9672830725462304</v>
       </c>
       <c r="J3">
-        <v>0.9521330956625074</v>
+        <v>0.9035726009410219</v>
       </c>
       <c r="K3">
-        <v>7.76</v>
+        <v>5.83</v>
       </c>
       <c r="L3">
-        <v>0.9129411764705883</v>
+        <v>0.829302987197724</v>
       </c>
       <c r="M3">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="N3">
-        <v>0.06952380952380952</v>
+        <v>0.07402269861286255</v>
       </c>
       <c r="O3">
-        <v>0.7525773195876289</v>
+        <v>1.006861063464837</v>
       </c>
       <c r="P3">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="Q3">
-        <v>0.06952380952380952</v>
+        <v>0.07402269861286255</v>
       </c>
       <c r="R3">
-        <v>0.7525773195876289</v>
+        <v>1.006861063464837</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.183</v>
+        <v>0.35</v>
       </c>
       <c r="V3">
-        <v>0.002178571428571429</v>
+        <v>0.004413619167717528</v>
       </c>
       <c r="W3">
-        <v>0.3154471544715447</v>
+        <v>0.239917695473251</v>
       </c>
       <c r="X3">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y3">
-        <v>0.2378732841151549</v>
+        <v>0.1753750092831101</v>
       </c>
       <c r="Z3">
-        <v>0.3459925916880368</v>
+        <v>0.2914956254923913</v>
       </c>
       <c r="AA3">
-        <v>0.3294309974002244</v>
+        <v>0.26338746048909</v>
       </c>
       <c r="AB3">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC3">
-        <v>0.2518571270438346</v>
+        <v>0.198844774298949</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.183</v>
+        <v>-0.35</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,25 +815,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.002183327964494077</v>
+        <v>-0.004433185560481317</v>
       </c>
       <c r="AK3">
-        <v>-0.007588008458763527</v>
+        <v>-0.01455301455301455</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.02210144927536232</v>
+        <v>-0.05131964809384164</v>
       </c>
       <c r="AQ3">
-        <v>-1376.666666666667</v>
+        <v>-1360</v>
       </c>
     </row>
   </sheetData>
